--- a/uploads/capital_risk/capital_risk_custom_ml_report.xlsx
+++ b/uploads/capital_risk/capital_risk_custom_ml_report.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,76 +657,76 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1439.1095673411912</t>
+          <t>36.99436738375741</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>348.9285867358679</t>
+          <t>23.75632964020673</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>538</v>
+        <v>660</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3121554754391413</v>
+        <v>0.2088344962462813</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>40537.59841918659</v>
+        <v>33841.81274246122</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4771019561511111</v>
+        <v>0.8046661922630777</v>
       </c>
       <c r="J2" t="n">
-        <v>102411.1428571428</v>
+        <v>140058.5603486433</v>
       </c>
       <c r="K2" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1625148244574642</v>
+        <v>0.0943466338302895</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.6940629259695994</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0164848762252216</v>
+        <v>0.0376344667107777</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0114441421114412</v>
+        <v>0.0378107767075415</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0227903421508553</v>
+        <v>0.0127926963723903</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0384541514335518</v>
+        <v>0.0205634330200771</v>
       </c>
       <c r="T2" t="n">
-        <v>14.32193942166546</v>
+        <v>13.30544218203236</v>
       </c>
       <c r="U2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
         <v>2022</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Error: 1090.1810</t>
+          <t>Error: 13.2380</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1090.1810</t>
+          <t>13.2380</t>
         </is>
       </c>
     </row>
@@ -796,82 +796,82 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1944.1115673411916</t>
+          <t>1861.627876562529</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>728.8410557722368</t>
+          <t>1400.3576660151018</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4021421951587864</v>
+        <v>0.3711132361978236</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>26142.90909181893</v>
+        <v>25234.5939484783</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4826566384953351</v>
+        <v>0.4857518925860035</v>
       </c>
       <c r="J3" t="n">
-        <v>93360.19578145884</v>
+        <v>84940.50709255188</v>
       </c>
       <c r="K3" t="n">
         <v>180</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1864331594551113</v>
+        <v>0.17701994952734</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0035469562252212</v>
+        <v>0.0028624168754156</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0125551511114412</v>
+        <v>0.0908329988611376</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0254894421508553</v>
+        <v>0.0439652616911332</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0404541514335518</v>
+        <v>0.0345768376786137</v>
       </c>
       <c r="T3" t="n">
-        <v>15.23419342166546</v>
+        <v>37.70172363618804</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -883,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>Error: 1215.2705</t>
+          <t>Error: 461.2702</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1215.2705</t>
+          <t>461.2702</t>
         </is>
       </c>
     </row>
@@ -935,40 +935,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2049.1103575330108</t>
+          <t>2522.9153575330106</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>931.2493012563526</t>
+          <t>1673.2682687421348</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3384759644194219</v>
+        <v>0.3358617755591606</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34338.95238846178</v>
+        <v>31368.54519486155</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4643331446741222</v>
+        <v>0.4631019593291628</v>
       </c>
       <c r="J4" t="n">
-        <v>104411.1428571428</v>
+        <v>97819.99379202673</v>
       </c>
       <c r="K4" t="n">
         <v>120</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1641148244574641</v>
+        <v>0.1609148238376563</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -980,31 +980,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0243419875069097</v>
+        <v>0.0283461303069097</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0144441421114412</v>
+        <v>0.024064864247611</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0186997491383257</v>
+        <v>0.0196917491383257</v>
       </c>
       <c r="S4" t="n">
         <v>0.0400499940070857</v>
       </c>
       <c r="T4" t="n">
-        <v>12.01293942166546</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>2022</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -1059,290 +1059,12 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>Error: 1117.8611</t>
+          <t>Error: 849.6471</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1117.8611</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1944.1115673411916</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>862.962622023096</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>412</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3981421951587864</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26142.90909181893</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4826566384953351</v>
-      </c>
-      <c r="J5" t="n">
-        <v>93360.19578145884</v>
-      </c>
-      <c r="K5" t="n">
-        <v>180</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1864331594551113</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0035469562252212</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0125551511114412</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0254894421508553</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0404541514335518</v>
-      </c>
-      <c r="T5" t="n">
-        <v>15.23419342166546</v>
-      </c>
-      <c r="U5" t="n">
-        <v>22</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>Error: 1081.1489</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>1081.1489</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2049.1103575330108</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>909.4220529433221</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>460</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3384759644194219</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>34338.95238846178</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4643331446741222</v>
-      </c>
-      <c r="J6" t="n">
-        <v>104411.1428571428</v>
-      </c>
-      <c r="K6" t="n">
-        <v>120</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1641148244574641</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0243419875069097</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0144441421114412</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0186997491383257</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0400499940070857</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12.01293942166546</v>
-      </c>
-      <c r="U6" t="n">
-        <v>19</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Error: 1139.6883</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>1139.6883</t>
+          <t>849.6471</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1119,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:07:17.082268</t>
+          <t>2025-10-20T17:56:45.884377</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1142,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1430,7 +1152,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1128.829959671744</v>
+        <v>441.3851123606179</v>
       </c>
     </row>
     <row r="7">
@@ -1440,7 +1162,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1276552.560296714</v>
+        <v>311615.2094241927</v>
       </c>
     </row>
     <row r="8">
@@ -1450,7 +1172,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1129.846255158955</v>
+        <v>558.2250526662098</v>
       </c>
     </row>
     <row r="9">
@@ -1460,7 +1182,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-23.58019200534129</v>
+        <v>0.7180347449768875</v>
       </c>
     </row>
     <row r="10">
@@ -1470,7 +1192,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6080956397888285</v>
+        <v>0.3141296985383008</v>
       </c>
     </row>
     <row r="11">
@@ -1480,7 +1202,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1215.270511568955</v>
+        <v>849.6470887908758</v>
       </c>
     </row>
     <row r="12">
@@ -1490,7 +1212,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1128.829959671744</v>
+        <v>441.3851123606179</v>
       </c>
     </row>
     <row r="13">
@@ -1500,7 +1222,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.91119330806031</v>
+        <v>341.7519451453018</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1240,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9558001754269574</v>
+        <v>0.8943185071441486</v>
       </c>
     </row>
   </sheetData>
